--- a/工作笔记.xlsx
+++ b/工作笔记.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\aoqi\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E3A5F97E-D69B-4889-A726-5C630FAACD9E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作计划" sheetId="5" r:id="rId1"/>
     <sheet name="竞技精灵" sheetId="6" r:id="rId2"/>
     <sheet name="BOSS克星" sheetId="7" r:id="rId3"/>
     <sheet name="路西法挑战配置" sheetId="1" state="hidden" r:id="rId4"/>
-    <sheet name="极耀时空" sheetId="2" r:id="rId5"/>
+    <sheet name="极耀时空挑战" sheetId="2" r:id="rId5"/>
     <sheet name="双尊抽奖" sheetId="3" state="hidden" r:id="rId6"/>
     <sheet name="神火次元龙抽奖" sheetId="4" state="hidden" r:id="rId7"/>
     <sheet name="元素秘境奖励" sheetId="8" state="hidden" r:id="rId8"/>
     <sheet name="王者龙炎挑战" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">竞技精灵!$A$1:$H$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">竞技精灵!$A$1:$H$15</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="232">
   <si>
     <t>精灵</t>
   </si>
@@ -796,18 +802,48 @@
   <si>
     <t>噬炎</t>
   </si>
+  <si>
+    <t>第2关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>极致守护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雅典娜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女帝阵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超魔攻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第4关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第5关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第6关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -824,100 +860,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -925,50 +879,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -989,204 +905,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1272,255 +1002,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1536,8 +1024,50 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1548,16 +1078,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1575,17 +1099,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1602,95 +1117,39 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1705,18 +1164,193 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>752475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2000067</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1581046</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1B2F14D-8847-4962-8E77-95CDB3AA6AB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3733800" y="6067425"/>
+          <a:ext cx="1466667" cy="828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>676275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1923871</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1619132</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C291D083-8922-4EF3-BA6A-19B5A29344D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6305550" y="5991225"/>
+          <a:ext cx="1428571" cy="942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2285819</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2123875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF859B0C-755E-4674-8043-387440F4D5B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144000" y="5838825"/>
+          <a:ext cx="1447619" cy="1600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -1732,13 +1366,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1755,6 +1395,182 @@
         <a:ln w="9525">
           <a:noFill/>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371227</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28268</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4A17744-8B92-4164-B218-8F7BCC6E3676}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2724150" y="828675"/>
+          <a:ext cx="1980952" cy="2457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590319</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28288</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4009DF0-B34D-454B-B34C-1F3579A50D44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5819775" y="819150"/>
+          <a:ext cx="1847619" cy="2295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>685551</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114061</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5791300-3685-406F-AD97-70776E5C33AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8515350" y="942975"/>
+          <a:ext cx="1990476" cy="1914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>647455</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28284</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{320318BA-A828-414E-8050-32167F9577DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11249025" y="790575"/>
+          <a:ext cx="1961905" cy="2323809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2014,46 +1830,46 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11.5"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" s="38">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B2" s="19">
         <v>43460</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="5" max="5" width="34.25" customWidth="1"/>
@@ -2062,7 +1878,7 @@
     <col min="8" max="8" width="47.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2088,7 +1904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="94.5" spans="1:8">
+    <row r="2" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2114,7 +1930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="121.5" spans="1:7">
+    <row r="3" spans="1:8" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -2137,7 +1953,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" ht="81" spans="1:8">
+    <row r="4" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2163,7 +1979,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" ht="108" spans="1:7">
+    <row r="5" spans="1:8" ht="108" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -2183,232 +1999,246 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" ht="145" customHeight="1" spans="1:7">
-      <c r="A6" t="s">
+    <row r="6" spans="1:8" ht="198.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:8" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>33</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" ht="121.5" hidden="1" spans="1:7">
-      <c r="A7" t="s">
-        <v>37</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" ht="94.5" hidden="1" spans="1:8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="121.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="153" hidden="1" customHeight="1" spans="1:6">
-      <c r="A9" t="s">
+    <row r="10" spans="1:8" ht="153" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>47</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="67.5" hidden="1" spans="1:8">
-      <c r="A10" t="s">
+    <row r="11" spans="1:8" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>50</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="141" hidden="1" customHeight="1" spans="1:6">
-      <c r="A11" t="s">
+    <row r="12" spans="1:8" ht="141" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="145" hidden="1" customHeight="1" spans="2:2">
-      <c r="B12" t="s">
+    <row r="13" spans="1:8" ht="144.94999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" customFormat="1" ht="121.5" hidden="1" spans="1:7">
-      <c r="A13" t="s">
+    <row r="14" spans="1:8" ht="121.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="94.5" hidden="1" spans="1:6">
-      <c r="A14" t="s">
+    <row r="15" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>62</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H14">
+  <autoFilter ref="A1:H15" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="equal" val="女帝阵"/>
-      </customFilters>
+      <filters>
+        <filter val="女帝阵"/>
+      </filters>
     </filterColumn>
     <extLst>
-      <etc:autoFilterAnalysis etc:version="v1" etc:showPane="0"/>
+      <etc:autoFilterAnalysis xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" etc:version="v1" etc:showPane="0"/>
     </extLst>
   </autoFilter>
-  <conditionalFormatting sqref="D$1:D$1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"超物攻"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"超魔攻"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="35"/>
-    <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="35" customWidth="1"/>
-    <col min="4" max="4" width="9" style="35"/>
-    <col min="5" max="5" width="11.875" style="35" customWidth="1"/>
-    <col min="6" max="9" width="28.25" style="35" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="35"/>
+    <col min="1" max="1" width="9" style="16"/>
+    <col min="2" max="2" width="15" style="16" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="16" customWidth="1"/>
+    <col min="4" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="11.875" style="16" customWidth="1"/>
+    <col min="6" max="9" width="28.25" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="67.5" spans="1:8">
-      <c r="A2" s="37"/>
-      <c r="B2" s="35" t="s">
+    <row r="2" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="18"/>
+      <c r="B2" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -2421,117 +2251,116 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" ht="81" spans="2:9">
-      <c r="B3" s="35" t="s">
+    <row r="3" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+      <c r="B3" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" ht="40.5" spans="2:8">
-      <c r="B4" s="35" t="s">
+    <row r="4" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" ht="27" spans="2:7">
-      <c r="B5" s="35" t="s">
+    <row r="5" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="B5" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="16" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" ht="67.5" spans="2:6">
-      <c r="B6" s="35" t="s">
+    <row r="6" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="16" t="s">
         <v>87</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"超物攻"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"超魔攻"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>"超物攻"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"超物攻"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"超魔攻"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"超物攻"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E2">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"超物攻"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"超魔攻"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D5:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="17.875" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:5">
+    <row r="5" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D5" t="s">
         <v>88</v>
       </c>
@@ -2539,7 +2368,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="4:5">
+    <row r="6" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D6" t="s">
         <v>90</v>
       </c>
@@ -2547,7 +2376,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="4:5">
+    <row r="7" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D7" t="s">
         <v>92</v>
       </c>
@@ -2555,7 +2384,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="4:5">
+    <row r="8" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D8" t="s">
         <v>94</v>
       </c>
@@ -2563,7 +2392,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="4:8">
+    <row r="13" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D13" s="2" t="s">
         <v>96</v>
       </c>
@@ -2577,7 +2406,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="4:8">
+    <row r="14" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D14" s="3" t="s">
         <v>100</v>
       </c>
@@ -2591,7 +2420,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="4:8">
+    <row r="15" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D15" s="3" t="s">
         <v>102</v>
       </c>
@@ -2605,7 +2434,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="4:8">
+    <row r="16" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D16" s="3" t="s">
         <v>104</v>
       </c>
@@ -2619,7 +2448,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
+    <row r="17" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D17" s="3" t="s">
         <v>106</v>
       </c>
@@ -2627,7 +2456,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D18" s="3" t="s">
         <v>107</v>
       </c>
@@ -2635,7 +2464,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="4:5">
+    <row r="19" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D19" s="3" t="s">
         <v>108</v>
       </c>
@@ -2643,7 +2472,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="4:5">
+    <row r="20" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D20" s="3" t="s">
         <v>109</v>
       </c>
@@ -2651,7 +2480,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="4:5">
+    <row r="21" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D21" s="3" t="s">
         <v>110</v>
       </c>
@@ -2659,7 +2488,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="4:5">
+    <row r="22" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D22" s="3" t="s">
         <v>111</v>
       </c>
@@ -2667,7 +2496,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="4:5">
+    <row r="23" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D23" s="3" t="s">
         <v>112</v>
       </c>
@@ -2675,7 +2504,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="4:5">
+    <row r="24" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D24" s="3" t="s">
         <v>113</v>
       </c>
@@ -2683,7 +2512,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="4:5">
+    <row r="25" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D25" s="3" t="s">
         <v>114</v>
       </c>
@@ -2691,7 +2520,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="7:8">
+    <row r="29" spans="4:8" x14ac:dyDescent="0.15">
       <c r="G29" s="2" t="s">
         <v>115</v>
       </c>
@@ -2699,187 +2528,203 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="7:8">
+    <row r="30" spans="4:8" x14ac:dyDescent="0.15">
       <c r="G30" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="7">
         <v>0.8</v>
       </c>
     </row>
-    <row r="31" spans="7:8">
+    <row r="31" spans="4:8" x14ac:dyDescent="0.15">
       <c r="G31" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="7">
         <v>0.19</v>
       </c>
     </row>
-    <row r="32" spans="7:8">
+    <row r="32" spans="4:8" x14ac:dyDescent="0.15">
       <c r="G32" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="7">
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="14:14">
+    <row r="33" spans="14:14" x14ac:dyDescent="0.15">
       <c r="N33">
         <f>9000*0.01</f>
         <v>90</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="D5:E60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A2:U60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="M68" sqref="M68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="5" max="5" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:5">
-      <c r="D5" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>96</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="4:5">
-      <c r="D6" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>120</v>
       </c>
-      <c r="E6">
+      <c r="B3">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="4:5">
-      <c r="D7" t="s">
+      <c r="E3" s="42" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>121</v>
       </c>
-      <c r="E7">
+      <c r="B4">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="4:5">
-      <c r="D8" t="s">
+      <c r="E4" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="M4" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q4" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="U4" s="40" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>122</v>
       </c>
-      <c r="E8">
+      <c r="B5">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="4:5">
-      <c r="D9" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>123</v>
       </c>
-      <c r="E9">
+      <c r="B6">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="4:5">
-      <c r="D10" t="s">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>124</v>
       </c>
-      <c r="E10">
+      <c r="B7">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="4:5">
-      <c r="D11" t="s">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>125</v>
       </c>
-      <c r="E11">
+      <c r="B8">
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="4:5">
-      <c r="D12" t="s">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>126</v>
       </c>
-      <c r="E12">
+      <c r="B9">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="4:5">
-      <c r="D13" t="s">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>127</v>
       </c>
-      <c r="E13">
+      <c r="B10">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="4:5">
-      <c r="D14" t="s">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>128</v>
       </c>
-      <c r="E14">
+      <c r="B11">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="4:5">
-      <c r="D15" t="s">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>129</v>
       </c>
-      <c r="E15">
+      <c r="B12">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="4:5">
-      <c r="D16" t="s">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>130</v>
       </c>
-      <c r="E16">
+      <c r="B13">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
-      <c r="D17" t="s">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>131</v>
       </c>
-      <c r="E17">
+      <c r="B14">
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="5:5">
+    <row r="28" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E28" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="5:5">
+    <row r="60" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E60" t="s">
         <v>133</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="F3:V51"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="8" max="8" width="16.25" customWidth="1"/>
     <col min="11" max="11" width="15.25" customWidth="1"/>
@@ -2888,30 +2733,30 @@
     <col min="20" max="20" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="6:22">
-      <c r="F3" s="33" t="s">
+    <row r="3" spans="6:22" x14ac:dyDescent="0.15">
+      <c r="F3" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="6" t="s">
+      <c r="H3" s="21"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="6" t="s">
+      <c r="K3" s="21"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="6" t="s">
+      <c r="N3" s="21"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="8"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="22"/>
       <c r="U3" t="s">
         <v>139</v>
       </c>
@@ -2919,8 +2764,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="6:22">
-      <c r="F4" s="34"/>
+    <row r="4" spans="6:22" x14ac:dyDescent="0.15">
+      <c r="F4" s="24"/>
       <c r="G4" s="3" t="s">
         <v>99</v>
       </c>
@@ -2964,7 +2809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="6:22">
+    <row r="5" spans="6:22" x14ac:dyDescent="0.15">
       <c r="F5" s="3">
         <v>1</v>
       </c>
@@ -3011,7 +2856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="6:22">
+    <row r="6" spans="6:22" x14ac:dyDescent="0.15">
       <c r="F6" s="3">
         <v>2</v>
       </c>
@@ -3058,7 +2903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="6:22">
+    <row r="7" spans="6:22" x14ac:dyDescent="0.15">
       <c r="F7" s="3">
         <v>3</v>
       </c>
@@ -3105,7 +2950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="6:22">
+    <row r="8" spans="6:22" x14ac:dyDescent="0.15">
       <c r="F8" s="3">
         <v>4</v>
       </c>
@@ -3152,7 +2997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="6:22">
+    <row r="9" spans="6:22" x14ac:dyDescent="0.15">
       <c r="F9" s="3">
         <v>5</v>
       </c>
@@ -3199,7 +3044,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="6:22">
+    <row r="10" spans="6:22" x14ac:dyDescent="0.15">
       <c r="F10" s="3">
         <v>6</v>
       </c>
@@ -3246,7 +3091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="6:22">
+    <row r="11" spans="6:22" x14ac:dyDescent="0.15">
       <c r="F11" s="3">
         <v>7</v>
       </c>
@@ -3293,7 +3138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="6:22">
+    <row r="12" spans="6:22" x14ac:dyDescent="0.15">
       <c r="F12" s="3">
         <v>8</v>
       </c>
@@ -3340,7 +3185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="6:18">
+    <row r="13" spans="6:22" x14ac:dyDescent="0.15">
       <c r="F13" s="3">
         <v>9</v>
       </c>
@@ -3381,7 +3226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="6:18">
+    <row r="14" spans="6:22" x14ac:dyDescent="0.15">
       <c r="F14" s="3">
         <v>10</v>
       </c>
@@ -3422,7 +3267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="6:18">
+    <row r="15" spans="6:22" x14ac:dyDescent="0.15">
       <c r="F15" s="3">
         <v>11</v>
       </c>
@@ -3463,7 +3308,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="6:18">
+    <row r="16" spans="6:22" x14ac:dyDescent="0.15">
       <c r="F16" s="3">
         <v>12</v>
       </c>
@@ -3504,7 +3349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="6:18">
+    <row r="17" spans="6:18" x14ac:dyDescent="0.15">
       <c r="F17" s="3">
         <v>13</v>
       </c>
@@ -3547,7 +3392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="6:18">
+    <row r="18" spans="6:18" x14ac:dyDescent="0.15">
       <c r="F18" s="3">
         <v>14</v>
       </c>
@@ -3577,7 +3422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="6:18">
+    <row r="19" spans="6:18" x14ac:dyDescent="0.15">
       <c r="F19" s="3">
         <v>15</v>
       </c>
@@ -3600,7 +3445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="6:18">
+    <row r="20" spans="6:18" x14ac:dyDescent="0.15">
       <c r="F20" s="3">
         <v>16</v>
       </c>
@@ -3624,7 +3469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="6:18">
+    <row r="21" spans="6:18" x14ac:dyDescent="0.15">
       <c r="F21" s="3" t="s">
         <v>152</v>
       </c>
@@ -3653,22 +3498,22 @@
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
     </row>
-    <row r="27" spans="7:7">
+    <row r="27" spans="6:18" x14ac:dyDescent="0.15">
       <c r="G27">
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="7:7">
+    <row r="28" spans="6:18" x14ac:dyDescent="0.15">
       <c r="G28">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="9:9">
+    <row r="29" spans="6:18" x14ac:dyDescent="0.15">
       <c r="I29" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="33" spans="7:9">
+    <row r="33" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G33" s="2" t="s">
         <v>154</v>
       </c>
@@ -3679,7 +3524,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="7:11">
+    <row r="34" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G34" s="3" t="s">
         <v>135</v>
       </c>
@@ -3691,10 +3536,10 @@
       </c>
       <c r="K34">
         <f>SUMPRODUCT(H34:H37,I34:I37)</f>
-        <v>87.45</v>
-      </c>
-    </row>
-    <row r="35" spans="7:9">
+        <v>87.449999999999989</v>
+      </c>
+    </row>
+    <row r="35" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G35" s="3" t="s">
         <v>136</v>
       </c>
@@ -3705,7 +3550,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="36" spans="7:9">
+    <row r="36" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G36" s="3" t="s">
         <v>137</v>
       </c>
@@ -3716,7 +3561,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="37" spans="7:9">
+    <row r="37" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G37" s="3" t="s">
         <v>138</v>
       </c>
@@ -3725,20 +3570,20 @@
       </c>
       <c r="I37" s="3">
         <f>1-SUM(I34:I36)</f>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="38" spans="7:9">
+        <v>0.14999999999999991</v>
+      </c>
+    </row>
+    <row r="38" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G38" s="3" t="s">
         <v>153</v>
       </c>
       <c r="H38" s="3">
         <f>K34</f>
-        <v>87.45</v>
+        <v>87.449999999999989</v>
       </c>
       <c r="I38" s="3"/>
     </row>
-    <row r="44" spans="7:8">
+    <row r="44" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G44" s="2" t="s">
         <v>139</v>
       </c>
@@ -3746,23 +3591,23 @@
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="7:8">
+    <row r="45" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G45" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="H45" s="12">
+      <c r="H45" s="7">
         <v>0.1</v>
       </c>
     </row>
-    <row r="46" spans="7:8">
+    <row r="46" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G46" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H46" s="7">
         <v>0.9</v>
       </c>
     </row>
-    <row r="49" spans="7:8">
+    <row r="49" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G49" s="2" t="s">
         <v>139</v>
       </c>
@@ -3770,19 +3615,19 @@
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="7:8">
+    <row r="50" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G50" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="H50" s="12">
+      <c r="H50" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="7:8">
+    <row r="51" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G51" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="H51" s="12">
+      <c r="H51" s="7">
         <v>1</v>
       </c>
     </row>
@@ -3794,21 +3639,21 @@
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="F3:F4"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:T64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="16.25" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
@@ -3835,121 +3680,121 @@
     <col min="32" max="32" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B1" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="5:20">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.15">
       <c r="E20" s="3"/>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="13" t="s">
+      <c r="G20" s="21"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="16" t="s">
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="31"/>
-    </row>
-    <row r="21" spans="5:20">
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="30"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.15">
       <c r="E21" s="2" t="s">
         <v>134</v>
       </c>
@@ -3962,44 +3807,44 @@
       <c r="H21" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="I21" s="18" t="s">
+      <c r="I21" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="J21" s="18" t="s">
+      <c r="J21" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="K21" s="18" t="s">
+      <c r="K21" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="L21" s="18" t="s">
+      <c r="L21" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="M21" s="18" t="s">
+      <c r="M21" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="N21" s="18" t="s">
+      <c r="N21" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="O21" s="19" t="s">
+      <c r="O21" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="P21" s="19" t="s">
+      <c r="P21" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="Q21" s="19" t="s">
+      <c r="Q21" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="R21" s="19" t="s">
+      <c r="R21" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="S21" s="19" t="s">
+      <c r="S21" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="T21" s="19" t="s">
+      <c r="T21" s="9" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="5:20">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.15">
       <c r="E22" s="3">
         <v>1</v>
       </c>
@@ -4011,42 +3856,42 @@
         <f>SUM($G$22:G22)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="20">
+      <c r="I22" s="10">
         <v>1</v>
       </c>
-      <c r="J22" s="20">
+      <c r="J22" s="10">
         <v>2</v>
       </c>
-      <c r="K22" s="20">
+      <c r="K22" s="10">
         <f>VLOOKUP(I22,$E$21:$H$34,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="L22" s="20" t="s">
+      <c r="L22" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="M22" s="20" t="s">
+      <c r="M22" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="N22" s="20"/>
-      <c r="O22" s="21">
+      <c r="N22" s="10"/>
+      <c r="O22" s="11">
         <v>1</v>
       </c>
-      <c r="P22" s="21">
+      <c r="P22" s="11">
         <v>2</v>
       </c>
-      <c r="Q22" s="21">
+      <c r="Q22" s="11">
         <f t="shared" ref="Q22:Q32" si="0">VLOOKUP(O22,$E$21:$H$34,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="R22" s="21" t="s">
+      <c r="R22" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="S22" s="21" t="s">
+      <c r="S22" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="T22" s="21"/>
-    </row>
-    <row r="23" spans="5:20">
+      <c r="T22" s="11"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.15">
       <c r="E23" s="3">
         <v>2</v>
       </c>
@@ -4058,38 +3903,38 @@
         <f>SUM($G$22:G23)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="20">
+      <c r="I23" s="10">
         <v>2</v>
       </c>
-      <c r="J23" s="20">
+      <c r="J23" s="10">
         <v>1</v>
       </c>
-      <c r="K23" s="20">
+      <c r="K23" s="10">
         <f t="shared" ref="K23:K31" si="1">VLOOKUP(I23,$E$21:$H$34,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="20" t="s">
+      <c r="L23" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="21">
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="11">
         <v>2</v>
       </c>
-      <c r="P23" s="21">
+      <c r="P23" s="11">
         <v>1</v>
       </c>
-      <c r="Q23" s="21">
+      <c r="Q23" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R23" s="21" t="s">
+      <c r="R23" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-    </row>
-    <row r="24" spans="5:20">
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.15">
       <c r="E24" s="3">
         <v>3</v>
       </c>
@@ -4101,44 +3946,44 @@
         <f>SUM($G$22:G24)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="20">
+      <c r="I24" s="10">
         <v>3</v>
       </c>
-      <c r="J24" s="20">
+      <c r="J24" s="10">
         <v>2</v>
       </c>
-      <c r="K24" s="20">
+      <c r="K24" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L24" s="20" t="s">
+      <c r="L24" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="M24" s="20" t="s">
+      <c r="M24" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="N24" s="20"/>
-      <c r="O24" s="21">
+      <c r="N24" s="10"/>
+      <c r="O24" s="11">
         <v>3</v>
       </c>
-      <c r="P24" s="21">
+      <c r="P24" s="11">
         <v>3</v>
       </c>
-      <c r="Q24" s="21">
+      <c r="Q24" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R24" s="21" t="s">
+      <c r="R24" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="S24" s="21" t="s">
+      <c r="S24" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="T24" s="21" t="s">
+      <c r="T24" s="11" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="5:20">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.15">
       <c r="E25" s="3">
         <v>4</v>
       </c>
@@ -4150,44 +3995,44 @@
         <f>SUM($G$22:G25)</f>
         <v>1</v>
       </c>
-      <c r="I25" s="20">
+      <c r="I25" s="10">
         <v>4</v>
       </c>
-      <c r="J25" s="20">
+      <c r="J25" s="10">
         <v>3</v>
       </c>
-      <c r="K25" s="20">
+      <c r="K25" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L25" s="20" t="s">
+      <c r="L25" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="M25" s="20" t="s">
+      <c r="M25" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="N25" s="20" t="s">
+      <c r="N25" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="O25" s="21">
+      <c r="O25" s="11">
         <v>4</v>
       </c>
-      <c r="P25" s="21">
+      <c r="P25" s="11">
         <v>2</v>
       </c>
-      <c r="Q25" s="21">
+      <c r="Q25" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R25" s="21" t="s">
+      <c r="R25" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="S25" s="21" t="s">
+      <c r="S25" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="T25" s="21"/>
-    </row>
-    <row r="26" spans="5:20">
+      <c r="T25" s="11"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.15">
       <c r="E26" s="3">
         <v>5</v>
       </c>
@@ -4199,42 +4044,42 @@
         <f>SUM($G$22:G26)</f>
         <v>6</v>
       </c>
-      <c r="I26" s="20">
+      <c r="I26" s="10">
         <v>5</v>
       </c>
-      <c r="J26" s="20">
+      <c r="J26" s="10">
         <v>2</v>
       </c>
-      <c r="K26" s="20">
+      <c r="K26" s="10">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="L26" s="20" t="s">
+      <c r="L26" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="M26" s="20" t="s">
+      <c r="M26" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="N26" s="20"/>
-      <c r="O26" s="21">
+      <c r="N26" s="10"/>
+      <c r="O26" s="11">
         <v>5</v>
       </c>
-      <c r="P26" s="21">
+      <c r="P26" s="11">
         <v>2</v>
       </c>
-      <c r="Q26" s="21">
+      <c r="Q26" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="R26" s="21" t="s">
+      <c r="R26" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="S26" s="21" t="s">
+      <c r="S26" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="T26" s="21"/>
-    </row>
-    <row r="27" spans="5:20">
+      <c r="T26" s="11"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.15">
       <c r="E27" s="3">
         <v>6</v>
       </c>
@@ -4246,38 +4091,38 @@
         <f>SUM($G$22:G27)</f>
         <v>14</v>
       </c>
-      <c r="I27" s="20">
+      <c r="I27" s="10">
         <v>6</v>
       </c>
-      <c r="J27" s="20">
+      <c r="J27" s="10">
         <v>1</v>
       </c>
-      <c r="K27" s="20">
+      <c r="K27" s="10">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="L27" s="20" t="s">
+      <c r="L27" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="21">
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="11">
         <v>6</v>
       </c>
-      <c r="P27" s="21">
+      <c r="P27" s="11">
         <v>1</v>
       </c>
-      <c r="Q27" s="21">
+      <c r="Q27" s="11">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="R27" s="21" t="s">
+      <c r="R27" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-    </row>
-    <row r="28" spans="5:20">
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.15">
       <c r="E28" s="3">
         <v>7</v>
       </c>
@@ -4289,38 +4134,38 @@
         <f>SUM($G$22:G28)</f>
         <v>24</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28" s="10">
         <v>7</v>
       </c>
-      <c r="J28" s="20">
+      <c r="J28" s="10">
         <v>2</v>
       </c>
-      <c r="K28" s="20">
+      <c r="K28" s="10">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="L28" s="20" t="s">
+      <c r="L28" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="21">
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="11">
         <v>7</v>
       </c>
-      <c r="P28" s="21">
+      <c r="P28" s="11">
         <v>1</v>
       </c>
-      <c r="Q28" s="21">
+      <c r="Q28" s="11">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="R28" s="21" t="s">
+      <c r="R28" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-    </row>
-    <row r="29" spans="5:20">
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.15">
       <c r="E29" s="3">
         <v>8</v>
       </c>
@@ -4332,40 +4177,40 @@
         <f>SUM($G$22:G29)</f>
         <v>39</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I29" s="10">
         <v>8</v>
       </c>
-      <c r="J29" s="20">
+      <c r="J29" s="10">
         <v>1</v>
       </c>
-      <c r="K29" s="20">
+      <c r="K29" s="10">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="L29" s="20" t="s">
+      <c r="L29" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="M29" s="20" t="s">
+      <c r="M29" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="N29" s="20"/>
-      <c r="O29" s="21">
+      <c r="N29" s="10"/>
+      <c r="O29" s="11">
         <v>8</v>
       </c>
-      <c r="P29" s="21">
+      <c r="P29" s="11">
         <v>1</v>
       </c>
-      <c r="Q29" s="21">
+      <c r="Q29" s="11">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="R29" s="21" t="s">
+      <c r="R29" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-    </row>
-    <row r="30" spans="5:20">
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.15">
       <c r="E30" s="3">
         <v>9</v>
       </c>
@@ -4377,42 +4222,42 @@
         <f>SUM($G$22:G30)</f>
         <v>59</v>
       </c>
-      <c r="I30" s="20">
+      <c r="I30" s="10">
         <v>9</v>
       </c>
-      <c r="J30" s="20">
+      <c r="J30" s="10">
         <v>2</v>
       </c>
-      <c r="K30" s="20">
+      <c r="K30" s="10">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="L30" s="20" t="s">
+      <c r="L30" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="M30" s="20" t="s">
+      <c r="M30" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="N30" s="20"/>
-      <c r="O30" s="21">
+      <c r="N30" s="10"/>
+      <c r="O30" s="11">
         <v>9</v>
       </c>
-      <c r="P30" s="21">
+      <c r="P30" s="11">
         <v>2</v>
       </c>
-      <c r="Q30" s="21">
+      <c r="Q30" s="11">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="R30" s="21" t="s">
+      <c r="R30" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="S30" s="21" t="s">
+      <c r="S30" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="T30" s="21"/>
-    </row>
-    <row r="31" spans="5:20">
+      <c r="T30" s="11"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.15">
       <c r="E31" s="3">
         <v>10</v>
       </c>
@@ -4424,38 +4269,38 @@
         <f>SUM($G$22:G31)</f>
         <v>84</v>
       </c>
-      <c r="I31" s="20">
+      <c r="I31" s="10">
         <v>10</v>
       </c>
-      <c r="J31" s="20">
+      <c r="J31" s="10">
         <v>1</v>
       </c>
-      <c r="K31" s="20">
+      <c r="K31" s="10">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="L31" s="20" t="s">
+      <c r="L31" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="21">
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="11">
         <v>10</v>
       </c>
-      <c r="P31" s="21">
+      <c r="P31" s="11">
         <v>1</v>
       </c>
-      <c r="Q31" s="21">
+      <c r="Q31" s="11">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="R31" s="21" t="s">
+      <c r="R31" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-    </row>
-    <row r="32" spans="5:20">
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.15">
       <c r="E32" s="3">
         <v>11</v>
       </c>
@@ -4467,29 +4312,29 @@
         <f>SUM($G$22:G32)</f>
         <v>109</v>
       </c>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="21">
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="11">
         <v>11</v>
       </c>
-      <c r="P32" s="21">
+      <c r="P32" s="11">
         <v>1</v>
       </c>
-      <c r="Q32" s="21">
+      <c r="Q32" s="11">
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
-      <c r="R32" s="21" t="s">
+      <c r="R32" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-    </row>
-    <row r="33" spans="5:20">
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+    </row>
+    <row r="33" spans="5:20" x14ac:dyDescent="0.15">
       <c r="E33" s="3">
         <v>12</v>
       </c>
@@ -4501,20 +4346,20 @@
         <f>SUM($G$22:G33)</f>
         <v>134</v>
       </c>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-    </row>
-    <row r="34" spans="5:20">
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+    </row>
+    <row r="34" spans="5:20" x14ac:dyDescent="0.15">
       <c r="E34" s="3">
         <v>13</v>
       </c>
@@ -4526,480 +4371,480 @@
         <f>SUM($G$22:G34)</f>
         <v>159</v>
       </c>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
-    </row>
-    <row r="35" spans="9:20">
-      <c r="I35" s="22" t="s">
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+    </row>
+    <row r="35" spans="5:20" x14ac:dyDescent="0.15">
+      <c r="I35" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="25" t="s">
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="26"/>
-      <c r="S35" s="26"/>
-      <c r="T35" s="32"/>
-    </row>
-    <row r="36" spans="9:20">
-      <c r="I36" s="27" t="s">
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="36"/>
+    </row>
+    <row r="36" spans="5:20" x14ac:dyDescent="0.15">
+      <c r="I36" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="J36" s="27" t="s">
+      <c r="J36" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="K36" s="27" t="s">
+      <c r="K36" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="L36" s="27" t="s">
+      <c r="L36" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M36" s="27" t="s">
+      <c r="M36" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="N36" s="27" t="s">
+      <c r="N36" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="O36" s="28" t="s">
+      <c r="O36" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="P36" s="28" t="s">
+      <c r="P36" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="Q36" s="28" t="s">
+      <c r="Q36" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="R36" s="28" t="s">
+      <c r="R36" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="S36" s="28" t="s">
+      <c r="S36" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="T36" s="28" t="s">
+      <c r="T36" s="13" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="37" spans="9:20">
-      <c r="I37" s="29">
+    <row r="37" spans="5:20" x14ac:dyDescent="0.15">
+      <c r="I37" s="14">
         <v>1</v>
       </c>
-      <c r="J37" s="29">
+      <c r="J37" s="14">
         <v>2</v>
       </c>
-      <c r="K37" s="29">
-        <f t="shared" ref="K37:K48" si="2">VLOOKUP(I37,$E$21:$H$34,4,FALSE)</f>
+      <c r="K37" s="14">
+        <f t="shared" ref="K37:K46" si="2">VLOOKUP(I37,$E$21:$H$34,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="L37" s="29" t="s">
+      <c r="L37" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="M37" s="29" t="s">
+      <c r="M37" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="N37" s="29"/>
-      <c r="O37" s="30">
+      <c r="N37" s="14"/>
+      <c r="O37" s="15">
         <v>1</v>
       </c>
-      <c r="P37" s="30">
+      <c r="P37" s="15">
         <v>1</v>
       </c>
-      <c r="Q37" s="30">
+      <c r="Q37" s="15">
         <f t="shared" ref="Q37:Q48" si="3">VLOOKUP(O37,$E$21:$H$34,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="R37" s="30" t="s">
+      <c r="R37" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="S37" s="30" t="s">
+      <c r="S37" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="T37" s="30"/>
-    </row>
-    <row r="38" spans="9:20">
-      <c r="I38" s="29">
+      <c r="T37" s="15"/>
+    </row>
+    <row r="38" spans="5:20" x14ac:dyDescent="0.15">
+      <c r="I38" s="14">
         <v>2</v>
       </c>
-      <c r="J38" s="29">
+      <c r="J38" s="14">
         <v>1</v>
       </c>
-      <c r="K38" s="29">
+      <c r="K38" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L38" s="29" t="s">
+      <c r="L38" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="30">
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="15">
         <v>2</v>
       </c>
-      <c r="P38" s="30">
+      <c r="P38" s="15">
         <v>2</v>
       </c>
-      <c r="Q38" s="30">
+      <c r="Q38" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R38" s="30" t="s">
+      <c r="R38" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="S38" s="30"/>
-      <c r="T38" s="30"/>
-    </row>
-    <row r="39" spans="9:20">
-      <c r="I39" s="29">
+      <c r="S38" s="15"/>
+      <c r="T38" s="15"/>
+    </row>
+    <row r="39" spans="5:20" x14ac:dyDescent="0.15">
+      <c r="I39" s="14">
         <v>3</v>
       </c>
-      <c r="J39" s="29">
+      <c r="J39" s="14">
         <v>2</v>
       </c>
-      <c r="K39" s="29">
+      <c r="K39" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L39" s="29" t="s">
+      <c r="L39" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="M39" s="29" t="s">
+      <c r="M39" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="N39" s="29"/>
-      <c r="O39" s="30">
+      <c r="N39" s="14"/>
+      <c r="O39" s="15">
         <v>3</v>
       </c>
-      <c r="P39" s="30">
+      <c r="P39" s="15">
         <v>3</v>
       </c>
-      <c r="Q39" s="30">
+      <c r="Q39" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R39" s="30" t="s">
+      <c r="R39" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="S39" s="30" t="s">
+      <c r="S39" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="T39" s="30" t="s">
+      <c r="T39" s="15" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="9:20">
-      <c r="I40" s="29">
+    <row r="40" spans="5:20" x14ac:dyDescent="0.15">
+      <c r="I40" s="14">
         <v>4</v>
       </c>
-      <c r="J40" s="29">
+      <c r="J40" s="14">
         <v>3</v>
       </c>
-      <c r="K40" s="29">
+      <c r="K40" s="14">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L40" s="29" t="s">
+      <c r="L40" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="M40" s="29" t="s">
+      <c r="M40" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="N40" s="29" t="s">
+      <c r="N40" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="O40" s="30">
+      <c r="O40" s="15">
         <v>4</v>
       </c>
-      <c r="P40" s="30">
+      <c r="P40" s="15">
         <v>2</v>
       </c>
-      <c r="Q40" s="30">
+      <c r="Q40" s="15">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R40" s="30" t="s">
+      <c r="R40" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="S40" s="30" t="s">
+      <c r="S40" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="T40" s="30"/>
-    </row>
-    <row r="41" spans="9:20">
-      <c r="I41" s="29">
+      <c r="T40" s="15"/>
+    </row>
+    <row r="41" spans="5:20" x14ac:dyDescent="0.15">
+      <c r="I41" s="14">
         <v>5</v>
       </c>
-      <c r="J41" s="29">
+      <c r="J41" s="14">
         <v>2</v>
       </c>
-      <c r="K41" s="29">
+      <c r="K41" s="14">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="L41" s="29" t="s">
+      <c r="L41" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="M41" s="29" t="s">
+      <c r="M41" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="N41" s="29"/>
-      <c r="O41" s="30">
+      <c r="N41" s="14"/>
+      <c r="O41" s="15">
         <v>5</v>
       </c>
-      <c r="P41" s="30">
+      <c r="P41" s="15">
         <v>1</v>
       </c>
-      <c r="Q41" s="30">
+      <c r="Q41" s="15">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="R41" s="30" t="s">
+      <c r="R41" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="S41" s="30"/>
-      <c r="T41" s="30"/>
-    </row>
-    <row r="42" spans="9:20">
-      <c r="I42" s="29">
+      <c r="S41" s="15"/>
+      <c r="T41" s="15"/>
+    </row>
+    <row r="42" spans="5:20" x14ac:dyDescent="0.15">
+      <c r="I42" s="14">
         <v>6</v>
       </c>
-      <c r="J42" s="29">
+      <c r="J42" s="14">
         <v>1</v>
       </c>
-      <c r="K42" s="29">
+      <c r="K42" s="14">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="L42" s="29" t="s">
+      <c r="L42" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="30">
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="15">
         <v>6</v>
       </c>
-      <c r="P42" s="30">
+      <c r="P42" s="15">
         <v>2</v>
       </c>
-      <c r="Q42" s="30">
+      <c r="Q42" s="15">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="R42" s="30" t="s">
+      <c r="R42" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="S42" s="30" t="s">
+      <c r="S42" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="T42" s="30"/>
-    </row>
-    <row r="43" spans="9:20">
-      <c r="I43" s="29">
+      <c r="T42" s="15"/>
+    </row>
+    <row r="43" spans="5:20" x14ac:dyDescent="0.15">
+      <c r="I43" s="14">
         <v>7</v>
       </c>
-      <c r="J43" s="29">
+      <c r="J43" s="14">
         <v>2</v>
       </c>
-      <c r="K43" s="29">
+      <c r="K43" s="14">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="L43" s="29" t="s">
+      <c r="L43" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="M43" s="29" t="s">
+      <c r="M43" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="N43" s="29"/>
-      <c r="O43" s="30">
+      <c r="N43" s="14"/>
+      <c r="O43" s="15">
         <v>7</v>
       </c>
-      <c r="P43" s="30">
+      <c r="P43" s="15">
         <v>1</v>
       </c>
-      <c r="Q43" s="30">
+      <c r="Q43" s="15">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="R43" s="30" t="s">
+      <c r="R43" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="S43" s="30"/>
-      <c r="T43" s="30"/>
-    </row>
-    <row r="44" spans="9:20">
-      <c r="I44" s="29">
+      <c r="S43" s="15"/>
+      <c r="T43" s="15"/>
+    </row>
+    <row r="44" spans="5:20" x14ac:dyDescent="0.15">
+      <c r="I44" s="14">
         <v>8</v>
       </c>
-      <c r="J44" s="29">
+      <c r="J44" s="14">
         <v>1</v>
       </c>
-      <c r="K44" s="29">
+      <c r="K44" s="14">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="L44" s="29" t="s">
+      <c r="L44" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="30">
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="15">
         <v>8</v>
       </c>
-      <c r="P44" s="30">
+      <c r="P44" s="15">
         <v>1</v>
       </c>
-      <c r="Q44" s="30">
+      <c r="Q44" s="15">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="R44" s="30" t="s">
+      <c r="R44" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="S44" s="30"/>
-      <c r="T44" s="30"/>
-    </row>
-    <row r="45" spans="9:20">
-      <c r="I45" s="29">
+      <c r="S44" s="15"/>
+      <c r="T44" s="15"/>
+    </row>
+    <row r="45" spans="5:20" x14ac:dyDescent="0.15">
+      <c r="I45" s="14">
         <v>9</v>
       </c>
-      <c r="J45" s="29">
+      <c r="J45" s="14">
         <v>2</v>
       </c>
-      <c r="K45" s="29">
+      <c r="K45" s="14">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
-      <c r="L45" s="29" t="s">
+      <c r="L45" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="M45" s="29" t="s">
+      <c r="M45" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="N45" s="29"/>
-      <c r="O45" s="30">
+      <c r="N45" s="14"/>
+      <c r="O45" s="15">
         <v>9</v>
       </c>
-      <c r="P45" s="30">
+      <c r="P45" s="15">
         <v>1</v>
       </c>
-      <c r="Q45" s="30">
+      <c r="Q45" s="15">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="R45" s="30" t="s">
+      <c r="R45" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="S45" s="30"/>
-      <c r="T45" s="30"/>
-    </row>
-    <row r="46" spans="9:20">
-      <c r="I46" s="29">
+      <c r="S45" s="15"/>
+      <c r="T45" s="15"/>
+    </row>
+    <row r="46" spans="5:20" x14ac:dyDescent="0.15">
+      <c r="I46" s="14">
         <v>10</v>
       </c>
-      <c r="J46" s="29">
+      <c r="J46" s="14">
         <v>1</v>
       </c>
-      <c r="K46" s="29">
+      <c r="K46" s="14">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="L46" s="29" t="s">
+      <c r="L46" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="M46" s="29"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="30">
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="15">
         <v>10</v>
       </c>
-      <c r="P46" s="30">
+      <c r="P46" s="15">
         <v>1</v>
       </c>
-      <c r="Q46" s="30">
+      <c r="Q46" s="15">
         <f t="shared" si="3"/>
         <v>84</v>
       </c>
-      <c r="R46" s="30" t="s">
+      <c r="R46" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="S46" s="30"/>
-      <c r="T46" s="30"/>
-    </row>
-    <row r="47" spans="9:20">
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="30">
+      <c r="S46" s="15"/>
+      <c r="T46" s="15"/>
+    </row>
+    <row r="47" spans="5:20" x14ac:dyDescent="0.15">
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="15">
         <v>11</v>
       </c>
-      <c r="P47" s="30">
+      <c r="P47" s="15">
         <v>1</v>
       </c>
-      <c r="Q47" s="30">
+      <c r="Q47" s="15">
         <f t="shared" si="3"/>
         <v>109</v>
       </c>
-      <c r="R47" s="30" t="s">
+      <c r="R47" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="S47" s="30"/>
-      <c r="T47" s="30"/>
-    </row>
-    <row r="48" spans="9:20">
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="30">
+      <c r="S47" s="15"/>
+      <c r="T47" s="15"/>
+    </row>
+    <row r="48" spans="5:20" x14ac:dyDescent="0.15">
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="15">
         <v>12</v>
       </c>
-      <c r="P48" s="30">
+      <c r="P48" s="15">
         <v>1</v>
       </c>
-      <c r="Q48" s="30">
+      <c r="Q48" s="15">
         <f t="shared" si="3"/>
         <v>134</v>
       </c>
-      <c r="R48" s="30" t="s">
+      <c r="R48" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="S48" s="30"/>
-      <c r="T48" s="30"/>
-    </row>
-    <row r="49" spans="9:20">
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="29"/>
-      <c r="M49" s="29"/>
-      <c r="N49" s="29"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="30"/>
-      <c r="R49" s="30"/>
-      <c r="S49" s="30"/>
-      <c r="T49" s="30"/>
-    </row>
-    <row r="51" spans="5:7">
+      <c r="S48" s="15"/>
+      <c r="T48" s="15"/>
+    </row>
+    <row r="49" spans="5:20" x14ac:dyDescent="0.15">
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="15"/>
+    </row>
+    <row r="51" spans="5:20" x14ac:dyDescent="0.15">
       <c r="E51" s="2" t="s">
         <v>181</v>
       </c>
@@ -5010,53 +4855,53 @@
         <v>182</v>
       </c>
     </row>
-    <row r="52" spans="5:7">
+    <row r="52" spans="5:20" x14ac:dyDescent="0.15">
       <c r="E52" s="3">
         <v>84</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F52" s="5">
         <v>0.35</v>
       </c>
-      <c r="G52" s="10">
+      <c r="G52" s="37">
         <f>SUMPRODUCT(E52:E55,F52:F55)</f>
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="5:7">
+    <row r="53" spans="5:20" x14ac:dyDescent="0.15">
       <c r="E53" s="3">
         <v>84</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F53" s="5">
         <v>0.35</v>
       </c>
-      <c r="G53" s="10"/>
-    </row>
-    <row r="54" spans="5:7">
+      <c r="G53" s="37"/>
+    </row>
+    <row r="54" spans="5:20" x14ac:dyDescent="0.15">
       <c r="E54" s="3">
         <v>109</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F54" s="5">
         <v>0.2</v>
       </c>
-      <c r="G54" s="10"/>
-    </row>
-    <row r="55" spans="5:8">
+      <c r="G54" s="37"/>
+    </row>
+    <row r="55" spans="5:20" x14ac:dyDescent="0.15">
       <c r="E55" s="3">
         <v>134</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F55" s="5">
         <v>0.1</v>
       </c>
-      <c r="G55" s="10"/>
-      <c r="H55" s="11"/>
-    </row>
-    <row r="56" spans="7:7">
-      <c r="G56" s="11"/>
-    </row>
-    <row r="57" spans="7:7">
-      <c r="G57" s="11"/>
-    </row>
-    <row r="58" spans="5:6">
+      <c r="G55" s="37"/>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="5:20" x14ac:dyDescent="0.15">
+      <c r="G56" s="6"/>
+    </row>
+    <row r="57" spans="5:20" x14ac:dyDescent="0.15">
+      <c r="G57" s="6"/>
+    </row>
+    <row r="58" spans="5:20" x14ac:dyDescent="0.15">
       <c r="E58" s="2" t="s">
         <v>180</v>
       </c>
@@ -5064,16 +4909,16 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="5:6">
-      <c r="E59" s="12" t="s">
+    <row r="59" spans="5:20" x14ac:dyDescent="0.15">
+      <c r="E59" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F59" s="3">
         <v>0.24</v>
       </c>
     </row>
-    <row r="60" spans="5:6">
-      <c r="E60" s="12" t="s">
+    <row r="60" spans="5:20" x14ac:dyDescent="0.15">
+      <c r="E60" s="7" t="s">
         <v>183</v>
       </c>
       <c r="F60" s="3">
@@ -5081,61 +4926,60 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="63" spans="7:7">
+    <row r="63" spans="5:20" x14ac:dyDescent="0.15">
       <c r="G63">
         <f>G52/F59</f>
-        <v>391.666666666667</v>
-      </c>
-    </row>
-    <row r="64" spans="7:7">
+        <v>391.66666666666669</v>
+      </c>
+    </row>
+    <row r="64" spans="5:20" x14ac:dyDescent="0.15">
       <c r="G64">
         <f>G52/F60</f>
-        <v>123.684210526316</v>
+        <v>123.68421052631579</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G52:G55"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="I20:N20"/>
     <mergeCell ref="O20:T20"/>
     <mergeCell ref="I35:N35"/>
     <mergeCell ref="O35:T35"/>
-    <mergeCell ref="G52:G55"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="C4:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="5" width="5.375" customWidth="1"/>
     <col min="6" max="6" width="15.125" customWidth="1"/>
     <col min="7" max="7" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:7">
-      <c r="C4" s="5" t="s">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C4" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="3:7">
-      <c r="C5" s="2"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C5" s="39"/>
       <c r="D5" s="2" t="s">
         <v>172</v>
       </c>
@@ -5149,7 +4993,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="3:7">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C6" s="3">
         <v>1</v>
       </c>
@@ -5162,7 +5006,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="3:7">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -5175,7 +5019,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="3:7">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -5188,7 +5032,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="3:7">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C9" s="3">
         <v>4</v>
       </c>
@@ -5201,7 +5045,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="3:7">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C10" s="3">
         <v>5</v>
       </c>
@@ -5214,7 +5058,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="3:7">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C11" s="3">
         <v>6</v>
       </c>
@@ -5227,7 +5071,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="3:7">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C12" s="3">
         <v>7</v>
       </c>
@@ -5240,7 +5084,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="3:7">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C13" s="3">
         <v>8</v>
       </c>
@@ -5253,7 +5097,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="3:7">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C14" s="3">
         <v>9</v>
       </c>
@@ -5268,7 +5112,7 @@
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="3:7">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C15" s="3">
         <v>10</v>
       </c>
@@ -5288,27 +5132,26 @@
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="C4:C5"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B3:K54"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="6" max="6" width="13.75" customWidth="1"/>
     <col min="8" max="8" width="72.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="8:9">
+    <row r="3" spans="7:9" x14ac:dyDescent="0.15">
       <c r="H3" t="s">
         <v>188</v>
       </c>
@@ -5316,7 +5159,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="7:9">
+    <row r="4" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G4" t="s">
         <v>190</v>
       </c>
@@ -5327,7 +5170,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="7:9">
+    <row r="5" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G5" t="s">
         <v>193</v>
       </c>
@@ -5338,7 +5181,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="7:9">
+    <row r="6" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G6" t="s">
         <v>196</v>
       </c>
@@ -5349,7 +5192,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="7:8">
+    <row r="7" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G7" t="s">
         <v>199</v>
       </c>
@@ -5357,42 +5200,42 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="7:7">
+    <row r="10" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G10" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="7:7">
+    <row r="11" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G11" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="10:10">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
       <c r="J18" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="19" spans="11:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K19">
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="11:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K20">
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="11:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K21">
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="5:5">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
       <c r="E28" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>205</v>
       </c>
@@ -5400,7 +5243,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>206</v>
       </c>
@@ -5408,7 +5251,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="34" spans="5:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E34" s="2" t="s">
         <v>96</v>
       </c>
@@ -5416,7 +5259,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="5:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E35" s="3" t="s">
         <v>207</v>
       </c>
@@ -5424,7 +5267,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="5:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E36" s="3" t="s">
         <v>208</v>
       </c>
@@ -5432,7 +5275,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="5:6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E37" s="3" t="s">
         <v>209</v>
       </c>
@@ -5440,7 +5283,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="5:6">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E38" s="3" t="s">
         <v>210</v>
       </c>
@@ -5448,7 +5291,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="5:6">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E39" s="3" t="s">
         <v>211</v>
       </c>
@@ -5456,7 +5299,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="5:6">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E40" s="3" t="s">
         <v>212</v>
       </c>
@@ -5464,7 +5307,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="5:6">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E41" s="3" t="s">
         <v>213</v>
       </c>
@@ -5472,7 +5315,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="5:6">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E42" s="3" t="s">
         <v>214</v>
       </c>
@@ -5480,7 +5323,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="5:6">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E43" s="3" t="s">
         <v>215</v>
       </c>
@@ -5488,7 +5331,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="5:6">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E44" s="3" t="s">
         <v>216</v>
       </c>
@@ -5496,7 +5339,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="5:6">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E45" s="3" t="s">
         <v>217</v>
       </c>
@@ -5504,7 +5347,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="5:6">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E46" s="3" t="s">
         <v>218</v>
       </c>
@@ -5512,7 +5355,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="5:6">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E47" s="3" t="s">
         <v>219</v>
       </c>
@@ -5520,7 +5363,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="5:6">
+    <row r="50" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E50" s="2" t="s">
         <v>96</v>
       </c>
@@ -5528,7 +5371,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="51" spans="5:6">
+    <row r="51" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E51" s="3" t="s">
         <v>190</v>
       </c>
@@ -5536,7 +5379,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="5:6">
+    <row r="52" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E52" s="3" t="s">
         <v>221</v>
       </c>
@@ -5544,7 +5387,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="5:6">
+    <row r="53" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E53" s="3" t="s">
         <v>222</v>
       </c>
@@ -5552,7 +5395,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="54" spans="5:6">
+    <row r="54" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E54" s="3" t="s">
         <v>199</v>
       </c>
@@ -5561,7 +5404,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>